--- a/Test_2025-12-25_20-25.xlsx
+++ b/Test_2025-12-25_20-25.xlsx
@@ -44,7 +44,7 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>1</t>
@@ -53,66 +53,48 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>-20.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>70.1400</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>1.2.3 EXTRA TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CETAL 1000MG 15 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>70.1400</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
@@ -132,18 +114,6 @@
   </si>
   <si>
     <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
   </si>
   <si>
     <t>Thursday, 25 December, 2025 8:25 PM</t>
@@ -847,7 +817,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -856,31 +826,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -889,14 +859,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -906,14 +876,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -922,14 +892,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -939,150 +909,51 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
-        <v>15</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>12</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
+    </row>
+    <row r="12" ht="26.25" customHeight="1">
+      <c r="N12" s="13">
+        <v>157.13999999999999</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>35</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
         <v>36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
         <v>37</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>12</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
-        <v>38</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
-        <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
-        <v>41</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>42</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>21</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>43</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" customHeight="1">
-      <c r="N15" s="13">
-        <v>281.13999999999999</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>46</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>47</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,25 +987,10 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
